--- a/Private Equity/Hagondale Ltd. (Titan Airways).xlsx
+++ b/Private Equity/Hagondale Ltd. (Titan Airways).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\Private Equity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCEDFA-5A21-4919-8D2C-AC76E289A7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60038A40-63B3-44DD-9B83-34E41FE389EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D92A9C50-FDAA-42F6-BAFC-A4DE9D07EFCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{D92A9C50-FDAA-42F6-BAFC-A4DE9D07EFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -382,26 +382,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,12 +401,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,12 +414,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +439,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -899,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289E548B-AA36-47EC-8787-C4BF93C0CE4F}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -914,185 +913,185 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="J5" s="3" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="J5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="J6" s="31" t="s">
+      <c r="D6" s="35"/>
+      <c r="J6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="J7" s="39" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="J7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="J9" s="31" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="J9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="35" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J10" s="34"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="35" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="J13" s="31" t="s">
+      <c r="D13" s="35"/>
+      <c r="J13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="34">
         <v>1988</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="J14" s="39" t="s">
+      <c r="D14" s="35"/>
+      <c r="J14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="J15" s="36" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="J15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="34">
         <v>16</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="34">
         <v>14.4</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="34">
         <v>0</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="20">
         <v>45141</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1124,11 +1123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147CFDB5-C271-45BB-A897-9FE6AE33BF17}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1138,68 +1137,68 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13">
+    <row r="2" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <v>41364</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="8">
         <v>41729</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="8">
         <v>42094</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="8">
         <v>42460</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="8">
         <v>42825</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="8">
         <v>43190</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="8">
         <v>43555</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="8">
         <v>43921</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="8">
         <v>44286</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="8">
         <v>44651</v>
       </c>
     </row>
@@ -1207,34 +1206,34 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="16">
         <v>77.387022999999999</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="16">
         <v>72.641296999999994</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="16">
         <v>68.288847000000004</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="16">
         <v>77.576780999999997</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="16">
         <v>89.468723999999995</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="16">
         <v>99.094594000000001</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="16">
         <v>114.164621</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="16">
         <v>118.171753</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="16">
         <v>57.710937999999999</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="16">
         <v>121.304598</v>
       </c>
     </row>
@@ -1242,34 +1241,34 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="17">
         <v>57.227375000000002</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <v>56.357297000000003</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="17">
         <v>57.475088</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="17">
         <v>67.828298000000004</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="17">
         <v>73.200834999999998</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="17">
         <v>84.200035999999997</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="17">
         <v>98.090716</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="17">
         <v>98.822799000000003</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="17">
         <v>69.603418000000005</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="17">
         <v>116.732409</v>
       </c>
     </row>
@@ -1277,43 +1276,43 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="16">
         <f t="shared" ref="C5:K5" si="0">C3-C4</f>
         <v>20.159647999999997</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="16">
         <f t="shared" ref="D5" si="1">D3-D4</f>
         <v>16.283999999999992</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>10.813759000000005</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>9.7484829999999931</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>16.267888999999997</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>14.894558000000004</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>16.073904999999996</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>19.348953999999992</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="16">
         <f t="shared" si="0"/>
         <v>-11.892480000000006</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="16">
         <f>L3-L4</f>
         <v>4.5721889999999945</v>
       </c>
@@ -1322,34 +1321,34 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="17">
         <v>10.717909000000001</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <v>13.983139</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="17">
         <v>6.2640799999999999</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="17">
         <v>6.9078520000000001</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="17">
         <v>6.6598119999999996</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="17">
         <v>8.3296519999999994</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="17">
         <v>8.5078289999999992</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="17">
         <v>9.4890000000000008</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="17">
         <v>8.0655839999999994</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="17">
         <v>8.9703219999999995</v>
       </c>
     </row>
@@ -1357,34 +1356,34 @@
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <v>-7.8148299999999997</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="17">
         <v>0</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="17">
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="17">
         <v>-0.79590799999999995</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="17">
         <v>0</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="17">
         <v>0</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="17">
         <v>5.7575760000000002</v>
       </c>
     </row>
@@ -1392,34 +1391,34 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="17">
         <v>2.8210000000000002E-3</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="17">
         <v>0</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="17">
         <v>4.2343260000000003</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="17">
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="17">
         <v>6.840916</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="17">
         <v>2.4288690000000002</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="17">
         <v>0.33555800000000002</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="17">
         <v>6.3138310000000004</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="17">
         <v>1.3657159999999999</v>
       </c>
     </row>
@@ -1427,43 +1426,43 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="16">
         <f t="shared" ref="C9:K9" si="2">C5-C6-C7+C8</f>
         <v>9.4445599999999974</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="16">
         <f t="shared" ref="D9" si="3">D5-D6-D7+D8</f>
         <v>10.115690999999991</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="16">
         <f t="shared" si="2"/>
         <v>4.5496790000000047</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="16">
         <f t="shared" si="2"/>
         <v>7.0749569999999933</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>9.608076999999998</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="16">
         <f t="shared" si="2"/>
         <v>14.201730000000005</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="16">
         <f t="shared" si="2"/>
         <v>9.9949449999999977</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="16">
         <f t="shared" si="2"/>
         <v>10.195511999999992</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="16">
         <f t="shared" si="2"/>
         <v>-13.644233000000007</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="16">
         <f>L5-L6-L7+L8</f>
         <v>-8.7899930000000062</v>
       </c>
@@ -1472,34 +1471,34 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="17">
         <v>0.17899899999999999</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <v>0.20824699999999999</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="17">
         <v>9.1634999999999994E-2</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="17">
         <v>0.168739</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="17">
         <v>0.69641900000000001</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="17">
         <v>0.80699100000000001</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="17">
         <v>0.33199899999999999</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="17">
         <v>0.48864999999999997</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="17">
         <v>0.97124999999999995</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="17">
         <v>0.104505</v>
       </c>
     </row>
@@ -1507,34 +1506,34 @@
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="17">
         <v>0.34308300000000003</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="17">
         <v>0.37245400000000001</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="17">
         <v>0.44126599999999999</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="17">
         <v>1.2295160000000001</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="17">
         <v>4.2879120000000004</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="17">
         <v>0.609236</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="17">
         <v>3.3193860000000002</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="17">
         <v>1.930817</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="17">
         <v>1.1679820000000001</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="17">
         <v>2.0524070000000001</v>
       </c>
     </row>
@@ -1542,43 +1541,43 @@
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="17">
         <f t="shared" ref="C12:K12" si="4">C9+C10-C11</f>
         <v>9.2804759999999966</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="17">
         <f t="shared" ref="D12" si="5">D9+D10-D11</f>
         <v>9.9514839999999918</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="17">
         <f t="shared" si="4"/>
         <v>4.2000480000000051</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="17">
         <f t="shared" si="4"/>
         <v>6.0141799999999934</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="17">
         <f t="shared" si="4"/>
         <v>6.0165839999999982</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="17">
         <f t="shared" si="4"/>
         <v>14.399485000000006</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="17">
         <f t="shared" si="4"/>
         <v>7.0075579999999977</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="17">
         <f t="shared" si="4"/>
         <v>8.7533449999999924</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="17">
         <f t="shared" si="4"/>
         <v>-13.840965000000008</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="17">
         <f>L9+L10-L11</f>
         <v>-10.737895000000007</v>
       </c>
@@ -1587,34 +1586,34 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="17">
         <v>1.4118010000000001</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="17">
         <v>2.198874</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="17">
         <v>0.828071</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="17">
         <v>1.264429</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="17">
         <v>1.0615920000000001</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="17">
         <v>2.7611810000000001</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="17">
         <v>1.358598</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="17">
         <v>1.6986859999999999</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="17">
         <v>-2.6001059999999998</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="17">
         <v>-0.91620699999999999</v>
       </c>
     </row>
@@ -1622,87 +1621,87 @@
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="16">
         <f t="shared" ref="C14:K14" si="6">C12-C13</f>
         <v>7.8686749999999961</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="16">
         <f t="shared" ref="D14" si="7">D12-D13</f>
         <v>7.7526099999999918</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="16">
         <f t="shared" si="6"/>
         <v>3.3719770000000051</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="16">
         <f t="shared" si="6"/>
         <v>4.7497509999999936</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="16">
         <f t="shared" si="6"/>
         <v>4.9549919999999981</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="16">
         <f t="shared" si="6"/>
         <v>11.638304000000005</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="16">
         <f t="shared" si="6"/>
         <v>5.648959999999998</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="16">
         <f t="shared" si="6"/>
         <v>7.054658999999992</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="16">
         <f t="shared" si="6"/>
         <v>-11.240859000000007</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="16">
         <f>L12-L13</f>
         <v>-9.8216880000000071</v>
       </c>
     </row>
-    <row r="16" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="2:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="26">
-        <f t="shared" ref="D16:J16" si="8">D3/C3-1</f>
+      <c r="D16" s="18">
+        <f t="shared" ref="D16:I16" si="8">D3/C3-1</f>
         <v>-6.132457117519563E-2</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="18">
         <f t="shared" si="8"/>
         <v>-5.9917019378109226E-2</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="18">
         <f t="shared" si="8"/>
         <v>0.13600953022387374</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="18">
         <f t="shared" si="8"/>
         <v>0.15329255541036169</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="18">
         <f t="shared" si="8"/>
         <v>0.1075892174342401</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="18">
         <f t="shared" si="8"/>
         <v>0.15207718596637054</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="18">
         <f>J3/I3-1</f>
         <v>3.5099595346617996E-2</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="18">
         <f>K3/J3-1</f>
         <v>-0.51163508592446794</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="18">
         <f>L3/K3-1</f>
         <v>1.1019342641770957</v>
       </c>
@@ -1711,43 +1710,43 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="21">
-        <f t="shared" ref="C18:E18" si="9">C5/C3</f>
+      <c r="C18" s="14">
+        <f t="shared" ref="C18:D18" si="9">C5/C3</f>
         <v>0.26050424500758995</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="14">
         <f t="shared" si="9"/>
         <v>0.22417000621561028</v>
       </c>
-      <c r="E18" s="21">
-        <f t="shared" ref="E18:G18" si="10">E5/E3</f>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:F18" si="10">E5/E3</f>
         <v>0.15835322274514321</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="14">
         <f t="shared" si="10"/>
         <v>0.12566238086109804</v>
       </c>
-      <c r="G18" s="21">
-        <f t="shared" ref="G18:I18" si="11">G5/G3</f>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:H18" si="11">G5/G3</f>
         <v>0.18182766303898554</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="14">
         <f t="shared" si="11"/>
         <v>0.15030646374109977</v>
       </c>
-      <c r="I18" s="21">
-        <f t="shared" ref="I18:J18" si="12">I5/I3</f>
+      <c r="I18" s="14">
+        <f t="shared" ref="I18" si="12">I5/I3</f>
         <v>0.14079585128215857</v>
       </c>
-      <c r="J18" s="21">
-        <f t="shared" ref="J18:K18" si="13">J5/J3</f>
+      <c r="J18" s="14">
+        <f t="shared" ref="J18" si="13">J5/J3</f>
         <v>0.16373586334121651</v>
       </c>
-      <c r="K18" s="21">
-        <f t="shared" ref="K18:L18" si="14">K5/K3</f>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18" si="14">K5/K3</f>
         <v>-0.20606977484926697</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="14">
         <f>L5/L3</f>
         <v>3.7691802910883844E-2</v>
       </c>
@@ -1756,43 +1755,43 @@
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="21">
-        <f t="shared" ref="C19:E19" si="15">C9/C3</f>
+      <c r="C19" s="14">
+        <f t="shared" ref="C19:D19" si="15">C9/C3</f>
         <v>0.12204320096406858</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="14">
         <f t="shared" si="15"/>
         <v>0.13925537425357359</v>
       </c>
-      <c r="E19" s="21">
-        <f t="shared" ref="E19:G19" si="16">E9/E3</f>
+      <c r="E19" s="14">
+        <f t="shared" ref="E19:F19" si="16">E9/E3</f>
         <v>6.6624041843904677E-2</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="14">
         <f t="shared" si="16"/>
         <v>9.1199414422725195E-2</v>
       </c>
-      <c r="G19" s="21">
-        <f t="shared" ref="G19:I19" si="17">G9/G3</f>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19:H19" si="17">G9/G3</f>
         <v>0.10739034346795868</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="14">
         <f t="shared" si="17"/>
         <v>0.1433148815363228</v>
       </c>
-      <c r="I19" s="21">
-        <f t="shared" ref="I19:J19" si="18">I9/I3</f>
+      <c r="I19" s="14">
+        <f t="shared" ref="I19" si="18">I9/I3</f>
         <v>8.7548532219977312E-2</v>
       </c>
-      <c r="J19" s="21">
-        <f t="shared" ref="J19:K19" si="19">J9/J3</f>
+      <c r="J19" s="14">
+        <f t="shared" ref="J19" si="19">J9/J3</f>
         <v>8.6277064875224393E-2</v>
       </c>
-      <c r="K19" s="21">
-        <f t="shared" ref="K19:L19" si="20">K9/K3</f>
+      <c r="K19" s="14">
+        <f t="shared" ref="K19" si="20">K9/K3</f>
         <v>-0.23642369146729181</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="14">
         <f>L9/L3</f>
         <v>-7.2462158441842464E-2</v>
       </c>
@@ -1801,43 +1800,43 @@
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="21">
-        <f t="shared" ref="C20:E20" si="21">C14/C3</f>
+      <c r="C20" s="14">
+        <f t="shared" ref="C20:D20" si="21">C14/C3</f>
         <v>0.10167951544020495</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="14">
         <f t="shared" si="21"/>
         <v>0.10672455366538944</v>
       </c>
-      <c r="E20" s="21">
-        <f t="shared" ref="E20:G20" si="22">E14/E3</f>
+      <c r="E20" s="14">
+        <f t="shared" ref="E20:F20" si="22">E14/E3</f>
         <v>4.9378151017837581E-2</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="14">
         <f t="shared" si="22"/>
         <v>6.1226451249633496E-2</v>
       </c>
-      <c r="G20" s="21">
-        <f t="shared" ref="G20:I20" si="23">G14/G3</f>
+      <c r="G20" s="14">
+        <f t="shared" ref="G20:H20" si="23">G14/G3</f>
         <v>5.5382392622476635E-2</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="14">
         <f t="shared" si="23"/>
         <v>0.11744640681407913</v>
       </c>
-      <c r="I20" s="21">
-        <f t="shared" ref="I20:J20" si="24">I14/I3</f>
+      <c r="I20" s="14">
+        <f t="shared" ref="I20" si="24">I14/I3</f>
         <v>4.9480828215599279E-2</v>
       </c>
-      <c r="J20" s="21">
-        <f t="shared" ref="J20:K20" si="25">J14/J3</f>
+      <c r="J20" s="14">
+        <f t="shared" ref="J20" si="25">J14/J3</f>
         <v>5.9698352786557989E-2</v>
       </c>
-      <c r="K20" s="21">
-        <f t="shared" ref="K20:L20" si="26">K14/K3</f>
+      <c r="K20" s="14">
+        <f t="shared" ref="K20" si="26">K14/K3</f>
         <v>-0.19477865703725017</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="14">
         <f>L14/L3</f>
         <v>-8.0967153446236284E-2</v>
       </c>
@@ -1846,61 +1845,61 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="21">
-        <f t="shared" ref="C21:E21" si="27">C13/C12</f>
+      <c r="C21" s="14">
+        <f t="shared" ref="C21:D21" si="27">C13/C12</f>
         <v>0.1521259254374453</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="14">
         <f t="shared" si="27"/>
         <v>0.22095940665733893</v>
       </c>
-      <c r="E21" s="21">
-        <f t="shared" ref="E21:G21" si="28">E13/E12</f>
+      <c r="E21" s="14">
+        <f t="shared" ref="E21:F21" si="28">E13/E12</f>
         <v>0.19715750867609108</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="14">
         <f t="shared" si="28"/>
         <v>0.21024129640283487</v>
       </c>
-      <c r="G21" s="21">
-        <f t="shared" ref="G21:I21" si="29">G13/G12</f>
+      <c r="G21" s="14">
+        <f t="shared" ref="G21:H21" si="29">G13/G12</f>
         <v>0.17644430793287361</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="14">
         <f t="shared" si="29"/>
         <v>0.1917555384793275</v>
       </c>
-      <c r="I21" s="21">
-        <f t="shared" ref="I21:J21" si="30">I13/I12</f>
+      <c r="I21" s="14">
+        <f t="shared" ref="I21" si="30">I13/I12</f>
         <v>0.19387609777899811</v>
       </c>
-      <c r="J21" s="21">
-        <f t="shared" ref="J21:K21" si="31">J13/J12</f>
+      <c r="J21" s="14">
+        <f t="shared" ref="J21" si="31">J13/J12</f>
         <v>0.1940613559730596</v>
       </c>
-      <c r="K21" s="21">
-        <f t="shared" ref="K21:L21" si="32">K13/K12</f>
+      <c r="K21" s="14">
+        <f t="shared" ref="K21" si="32">K13/K12</f>
         <v>0.18785583230649008</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="14">
         <f>L13/L12</f>
         <v>8.532463765011665E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
+      <c r="B25" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
